--- a/2.项目计划/项目进度及支付比例.xlsx
+++ b/2.项目计划/项目进度及支付比例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\iCloudDrive\项目资料\20.茵澳家政\00.前期资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\iCloudDrive\项目资料\20.茵澳家政\01.合同\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>阶段</t>
   </si>
@@ -27,13 +27,7 @@
     <t>工作事项</t>
   </si>
   <si>
-    <t>预估工作量（人天）</t>
-  </si>
-  <si>
     <t>拟投入人员</t>
-  </si>
-  <si>
-    <t>预估耗时（天）</t>
   </si>
   <si>
     <t>成果物</t>
@@ -163,6 +157,20 @@
   </si>
   <si>
     <t>【小程序-雇主端】测试及BUG修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估工作量
+（人天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估耗时
+（天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目进度及支付比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -183,7 +191,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="仿宋"/>
@@ -191,7 +198,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="仿宋"/>
       <family val="3"/>
@@ -218,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -298,92 +321,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,503 +1614,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV21"/>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="3" customWidth="1"/>
-    <col min="10" max="256" width="8.875" style="3" customWidth="1"/>
-    <col min="257" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="19">
+        <v>12</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7">
+        <v>43255</v>
+      </c>
+      <c r="I3" s="7">
+        <v>43269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="7">
+        <v>43255</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="7">
+        <v>43255</v>
+      </c>
+      <c r="I5" s="7">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="46.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="10">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="12">
-        <v>43252</v>
-      </c>
-      <c r="I2" s="12">
-        <v>43266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="47.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="12">
-        <v>43252</v>
-      </c>
-      <c r="I3" s="12">
-        <v>43263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="12">
-        <v>43252</v>
-      </c>
-      <c r="I4" s="12">
-        <v>43262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8">
-        <v>8</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8">
-        <v>8</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="12">
-        <v>43252</v>
-      </c>
-      <c r="I5" s="12">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
-        <v>8</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8">
-        <v>8</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="12">
-        <v>43252</v>
-      </c>
-      <c r="I6" s="12">
-        <v>43264</v>
+      <c r="H6" s="7">
+        <v>43255</v>
+      </c>
+      <c r="I6" s="7">
+        <v>43267</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8">
-        <v>20</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="10">
-        <v>20</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="12">
-        <v>43266</v>
-      </c>
-      <c r="I7" s="12">
-        <v>43294</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>43255</v>
+      </c>
+      <c r="I7" s="7">
+        <v>43267</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
         <v>20</v>
       </c>
-      <c r="D8" s="8">
-        <v>15</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="12">
+      <c r="E8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="19">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>43266</v>
       </c>
-      <c r="I8" s="12">
-        <v>43287</v>
+      <c r="I8" s="7">
+        <v>43294</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8">
-        <v>10</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="12">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="7">
         <v>43266</v>
       </c>
-      <c r="I9" s="12">
-        <v>43283</v>
+      <c r="I9" s="7">
+        <v>43287</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="12">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="7">
         <v>43266</v>
       </c>
-      <c r="I10" s="12">
-        <v>43279</v>
+      <c r="I10" s="7">
+        <v>43283</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12">
-        <v>43287</v>
-      </c>
-      <c r="I11" s="12">
-        <v>43315</v>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="7">
+        <v>43266</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43279</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8">
-        <v>15</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12">
-        <v>43283</v>
-      </c>
-      <c r="I12" s="12">
-        <v>43304</v>
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="7">
+        <v>43287</v>
+      </c>
+      <c r="I12" s="7">
+        <v>43315</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8">
-        <v>10</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12">
-        <v>43279</v>
-      </c>
-      <c r="I13" s="12">
-        <v>43294</v>
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7">
+        <v>43283</v>
+      </c>
+      <c r="I13" s="7">
+        <v>43304</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12">
-        <v>43313</v>
-      </c>
-      <c r="I14" s="12">
-        <v>43313</v>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="7">
+        <v>43279</v>
+      </c>
+      <c r="I14" s="7">
+        <v>43294</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="12">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="19">
+        <v>10</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>43313</v>
       </c>
-      <c r="I15" s="12">
-        <v>43318</v>
+      <c r="I15" s="7">
+        <v>43313</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="12">
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="7">
         <v>43313</v>
       </c>
-      <c r="I16" s="12">
-        <v>43317</v>
+      <c r="I16" s="7">
+        <v>43318</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="7">
         <v>43313</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="7">
         <v>43317</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="12">
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="7">
+        <v>43313</v>
+      </c>
+      <c r="I18" s="7">
         <v>43317</v>
-      </c>
-      <c r="I18" s="12">
-        <v>43327</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="8">
-        <v>8</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="12">
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="7">
         <v>43317</v>
       </c>
-      <c r="I19" s="12">
-        <v>43325</v>
+      <c r="I19" s="7">
+        <v>43327</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
         <v>8</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="12">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="7">
         <v>43317</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="7">
         <v>43325</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24">
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="7">
+        <v>43317</v>
+      </c>
+      <c r="I21" s="7">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
         <v>0.1</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="26">
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15">
         <v>60</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="12">
+      <c r="G22" s="12"/>
+      <c r="H22" s="7">
         <v>43327</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I22" s="7">
         <v>43388</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="G14:G20"/>
-    <mergeCell ref="F7:F13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="G7:G13"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B20"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="F8:F14"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="E8:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
